--- a/proyectos/ejemplo1/7/2_elemento.xlsx
+++ b/proyectos/ejemplo1/7/2_elemento.xlsx
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>l</t>
   </si>
   <si>
-    <t>400</t>
+    <t>600</t>
   </si>
   <si>
     <t>id</t>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>lm</t>
-  </si>
-  <si>
-    <t>90</t>
   </si>
   <si>
     <t>kv</t>
@@ -110,19 +107,19 @@
     <t>ve</t>
   </si>
   <si>
-    <t>[0, 0, 0, 0, 0, 0, 7, 8, 9, 10, 11, 12]</t>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12]</t>
   </si>
   <si>
     <t>dx</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>vzz</t>
   </si>
   <si>
-    <t>2951.4533333333334</t>
+    <t>874.5046913580247</t>
   </si>
   <si>
     <t>vyy</t>
@@ -131,7 +128,7 @@
     <t>myy</t>
   </si>
   <si>
-    <t>118058.13333333335</t>
+    <t>52470.281481481485</t>
   </si>
   <si>
     <t>mzz</t>
@@ -140,7 +137,7 @@
     <t>pp_scc</t>
   </si>
   <si>
-    <t>0.0768</t>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -526,12 +523,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -539,7 +536,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -547,7 +544,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -555,7 +552,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -563,7 +560,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -571,106 +568,106 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7679999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -902,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.702643708725907e-17</v>
+        <v>-1.152000000000019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -934,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.127258066302722e-15</v>
+        <v>-114.9120000000015</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -942,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7679999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -950,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.702643708725822e-17</v>
+        <v>-1.151999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -982,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.127258066302681e-15</v>
+        <v>114.912</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.149051953565419e-31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1022,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7679999999999999</v>
+        <v>-1.152000000000019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1054,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.127258066302722e-15</v>
+        <v>-114.9120000000015</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1062,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.355854680848614e-31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1070,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7679999999999999</v>
+        <v>-1.151999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1102,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.127258066302681e-15</v>
+        <v>114.912</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.006505269720228376</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01102677336126192</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1286,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.007351182240841091</v>
+        <v>0.01102677336126164</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1294,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0008167980267598654</v>
+        <v>0.006505269720228189</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3214321678321718</v>
+        <v>1.152000000000044</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1334,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3214321678321723</v>
+        <v>1.036800000000045</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1342,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3214321678321727</v>
+        <v>0.9216000000000455</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1350,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3214321678321703</v>
+        <v>0.8064000000000254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1358,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3214321678321677</v>
+        <v>0.6912000000000023</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1366,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3214321678321718</v>
+        <v>0.5760000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1374,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3214321678321635</v>
+        <v>0.4607999999999954</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1382,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3214321678321673</v>
+        <v>0.3456000000000072</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1390,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3214321678321725</v>
+        <v>0.2304000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1398,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3214321678321673</v>
+        <v>0.1151999999999882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1406,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.321432167832152</v>
+        <v>-2.427238108720988e-14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1414,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3214321678321366</v>
+        <v>-0.1152000000000429</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1422,7 +1419,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3214321678321776</v>
+        <v>-0.230400000000025</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1430,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3214321678321827</v>
+        <v>-0.345599999999989</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1438,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3214321678321622</v>
+        <v>-0.4607999999999954</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1446,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3214321678321725</v>
+        <v>-0.5760000000000141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1454,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3214321678321725</v>
+        <v>-0.6911999999999962</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1462,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3214321678321776</v>
+        <v>-0.8064000000000027</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1470,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3214321678321776</v>
+        <v>-0.921599999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1478,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3214321678321841</v>
+        <v>-1.036799999999993</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1486,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3214321678321905</v>
+        <v>-1.151999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.154352484987275</v>
+        <v>1.154352484987814</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1526,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.154352484987248</v>
+        <v>1.154352484988177</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1534,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.15435248498722</v>
+        <v>1.154352484988539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1542,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.154352484986625</v>
+        <v>1.154352484993199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1550,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.154352484986218</v>
+        <v>1.154352484995918</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1558,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.154352484986084</v>
+        <v>1.15435248499786</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1566,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.154352484986289</v>
+        <v>1.15435248499786</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1574,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.154352484987109</v>
+        <v>1.15435248499553</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1582,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.154352484987641</v>
+        <v>1.154352484994364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1590,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.154352484987559</v>
+        <v>1.154352484994753</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1598,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.154352484986658</v>
+        <v>1.154352484996695</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1606,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.154352484986986</v>
+        <v>1.154352484998636</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1614,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.154352484987641</v>
+        <v>1.154352484996306</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1622,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.154352484986822</v>
+        <v>1.154352484996695</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1630,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.154352484986658</v>
+        <v>1.154352484997083</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1638,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.154352484986986</v>
+        <v>1.154352484995918</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1646,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.154352484987641</v>
+        <v>1.154352484996306</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1654,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.154352484987969</v>
+        <v>1.154352484995918</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1662,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.154352484987641</v>
+        <v>1.154352484995724</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1670,7 +1667,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.154352484990782</v>
+        <v>1.154352484994822</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1678,7 +1675,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.154352484993924</v>
+        <v>1.15435248499392</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858.5849940147031</v>
+        <v>-346.3057454984628</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1718,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>835.497944314958</v>
+        <v>-311.675170948793</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1726,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812.4108946152121</v>
+        <v>-277.0445963991601</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1734,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789.3238449154693</v>
+        <v>-242.414021849434</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1742,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766.2367952157472</v>
+        <v>-207.7834472995914</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1750,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>743.1497455160205</v>
+        <v>-173.1528727496789</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1758,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720.0626958163037</v>
+        <v>-138.5222981997199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1766,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>696.975646116569</v>
+        <v>-103.8917236498074</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1774,7 +1771,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673.8885964168194</v>
+        <v>-69.26114909998809</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1782,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650.8015467170633</v>
+        <v>-34.6305745501455</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1790,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>627.7144970173171</v>
+        <v>-3.029193159683793e-10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1798,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604.627447317597</v>
+        <v>34.63057454965617</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1806,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581.5403976178376</v>
+        <v>69.26114909961527</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1814,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>558.4533479180914</v>
+        <v>103.8917236494346</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1822,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>535.3662982183647</v>
+        <v>138.522298199417</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1830,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>512.2792485186251</v>
+        <v>173.1528727492595</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1838,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>489.1921988188853</v>
+        <v>207.783447299172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1846,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>466.1051491191194</v>
+        <v>242.4140218490496</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1854,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>443.0180994193666</v>
+        <v>277.0445963989271</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1862,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>419.9310497196137</v>
+        <v>311.675170948793</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1870,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>396.8440000197342</v>
+        <v>346.305745498626</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.58976223776244</v>
+        <v>-85.98310489510732</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1910,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-36.16111888111897</v>
+        <v>-53.15110489510602</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1918,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-29.73247552447553</v>
+        <v>-23.77510489510447</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1926,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-23.30383216783206</v>
+        <v>2.14489510489671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1934,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-16.87518881118872</v>
+        <v>24.60889510489706</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1942,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-10.44654545454535</v>
+        <v>43.61689510489685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1950,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.017902097901849</v>
+        <v>59.16889510489717</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1958,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.410741258741191</v>
+        <v>71.26489510489657</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1966,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.839384615384846</v>
+        <v>79.90489510489761</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1974,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.26802797202809</v>
+        <v>85.08889510489662</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1982,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.69667132867154</v>
+        <v>86.8168951048969</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1990,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.12531468531417</v>
+        <v>85.08889510489516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1998,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.55395804195701</v>
+        <v>79.90489510489432</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2006,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.98260139860128</v>
+        <v>71.26489510489365</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2014,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.41124475524432</v>
+        <v>59.16889510489499</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2022,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.83988811188777</v>
+        <v>43.61689510489393</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2030,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>60.26853146853122</v>
+        <v>24.60889510489415</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2038,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.69717482517467</v>
+        <v>2.144895104894161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2046,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.12581818181822</v>
+        <v>-23.77510489510601</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2054,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>79.55446153846177</v>
+        <v>-53.15110489510565</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2062,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>85.98310489510551</v>
+        <v>-85.9831048951055</v>
       </c>
     </row>
   </sheetData>
@@ -3990,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.262407240238194e-20</v>
+        <v>-0.002168423240076125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3998,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0001803762309095283</v>
+        <v>-0.008501160441300856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4006,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.000667051721854104</v>
+        <v>-0.01584687305249866</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4014,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.001405573271049718</v>
+        <v>-0.02364570129837235</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4022,7 +4019,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.002341487676712362</v>
+        <v>-0.03140365125954209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4030,7 +4027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.003420341737058026</v>
+        <v>-0.03869259487254535</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4038,7 +4035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.004587682250302703</v>
+        <v>-0.04515026992983692</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4046,7 +4043,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.005789056014662383</v>
+        <v>-0.0504802800797889</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4054,7 +4051,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.006970009828353061</v>
+        <v>-0.05445209482669071</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4062,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.008076090489590725</v>
+        <v>-0.05690104953074905</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4070,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.009052844796591368</v>
+        <v>-0.05772834540808798</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4078,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.009845819547570982</v>
+        <v>-0.05690104953074884</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4086,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01040056154074556</v>
+        <v>-0.05445209482669031</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4094,7 +4091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.01066261757433111</v>
+        <v>-0.05048028007978837</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4102,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0105775344465436</v>
+        <v>-0.04515026992983633</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4110,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.01009085895559904</v>
+        <v>-0.03869259487254473</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4118,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00914813789971341</v>
+        <v>-0.0314036512595415</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4126,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.007694918077102706</v>
+        <v>-0.02364570129837184</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4134,7 +4131,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.005676746285982916</v>
+        <v>-0.01584687305249827</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4142,7 +4139,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.003039169324570033</v>
+        <v>-0.008501160441300637</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4150,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0002722660089199551</v>
+        <v>-0.002168423240076063</v>
       </c>
     </row>
   </sheetData>
@@ -4182,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.232618783484639e-18</v>
+        <v>4.240188821917775</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4190,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00363628057539465</v>
+        <v>4.106710579531867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4198,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01434956568004063</v>
+        <v>3.9672923047667</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4206,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03194429869239998</v>
+        <v>3.822594001219966</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4214,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05622492299093475</v>
+        <v>3.673275672489357</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4222,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08699588195410717</v>
+        <v>3.519997322172569</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4230,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1240616189603794</v>
+        <v>3.363418953867297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4238,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1672265773882138</v>
+        <v>3.204200571171239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4246,7 +4243,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2162952006160724</v>
+        <v>3.043002177682091</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4254,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2710719320224173</v>
+        <v>2.880483776997548</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4262,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3313612149857104</v>
+        <v>2.717305372715303</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4270,7 +4267,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3969674928844136</v>
+        <v>2.554126968433053</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4278,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4676952090969894</v>
+        <v>2.391608567748494</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4286,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5433488070018995</v>
+        <v>2.230410174259324</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4294,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.623732729977606</v>
+        <v>2.071191791563237</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4302,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7086514214025711</v>
+        <v>1.91461342325793</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4310,7 +4307,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7979093246552569</v>
+        <v>1.761335072941099</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4318,7 +4315,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8913108831141254</v>
+        <v>1.612016744210439</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4326,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9886605401576386</v>
+        <v>1.467318440663647</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4334,7 +4331,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.089762739164258</v>
+        <v>1.327900165898418</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4374,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.687999999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4382,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.611199999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4390,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.534399999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4398,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.457599999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4406,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.380799999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4414,7 +4411,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.303999999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4422,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.227199999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4430,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.150399999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4438,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.073599999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4446,7 +4443,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.996799999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4454,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.919999999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4462,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.843199999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4470,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.766399999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4478,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.689599999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4486,7 +4483,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.612799999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4494,7 +4491,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.535999999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4502,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.459199999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4510,7 +4507,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.382399999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4518,7 +4515,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.305599999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4526,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.228799999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4534,7 +4531,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.151999999999989</v>
+        <v>-0.321432167832195</v>
       </c>
     </row>
   </sheetData>
@@ -6111,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6152,10 +6149,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6243,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6284,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6375,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -6416,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6507,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6548,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.123233995736766e-17</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6660,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>885.436</v>
+        <v>590.2906666666667</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6678,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-885.436</v>
+        <v>-590.2906666666667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -6704,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.810308457704652</v>
+        <v>2.610461765245823</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6716,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1762.061691542047</v>
+        <v>783.1385295742277</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.810308457711697</v>
+        <v>-2.61046176524791</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6734,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1762.061691542313</v>
+        <v>783.1385295743613</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6748,13 +6745,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.810308457704652</v>
+        <v>2.610461765245823</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1762.061691542047</v>
+        <v>-783.1385295742277</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6766,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.810308457711697</v>
+        <v>-2.61046176524791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-1762.061691542313</v>
+        <v>-783.1385295743613</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6792,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>79807.29813333334</v>
+        <v>53204.86542222223</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6810,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-79807.29813333334</v>
+        <v>-53204.86542222223</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -6830,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1762.061691542006</v>
+        <v>-783.1385295742247</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>470470.4716417747</v>
+        <v>313646.9810945168</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6848,13 +6845,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1762.061691542272</v>
+        <v>783.138529574343</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234354.2049751256</v>
+        <v>156236.1366500837</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -6868,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1762.061691542006</v>
+        <v>783.1385295742247</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6880,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>470470.4716417747</v>
+        <v>313646.9810945168</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1762.061691542272</v>
+        <v>-783.138529574343</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -6898,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>234354.2049751256</v>
+        <v>156236.1366500837</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6906,7 +6903,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-885.436</v>
+        <v>-590.2906666666667</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6924,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>885.436</v>
+        <v>590.2906666666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6950,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.81030845771177</v>
+        <v>-2.610461765247932</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -6962,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1762.061691542294</v>
+        <v>-783.138529574352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8.81030845771776</v>
+        <v>2.610461765249707</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6980,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-1762.061691542425</v>
+        <v>-783.1385295743955</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6994,13 +6991,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.81030845771177</v>
+        <v>-2.610461765247932</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1762.061691542294</v>
+        <v>783.138529574352</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7012,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.81030845771776</v>
+        <v>2.610461765249707</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1762.061691542425</v>
+        <v>783.1385295743955</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7038,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-79807.29813333334</v>
+        <v>-53204.86542222223</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -7056,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>79807.29813333334</v>
+        <v>53204.86542222223</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7076,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1762.061691542342</v>
+        <v>-783.1385295743743</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>234354.2049751268</v>
+        <v>156236.1366500845</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7094,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1762.061691542438</v>
+        <v>783.1385295744169</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>470470.4716417957</v>
+        <v>313646.9810945301</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7114,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1762.061691542342</v>
+        <v>783.1385295743743</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7126,13 +7123,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>234354.2049751268</v>
+        <v>156236.1366500845</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1762.061691542438</v>
+        <v>-783.1385295744169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7144,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>470470.4716417957</v>
+        <v>313646.9810945301</v>
       </c>
     </row>
   </sheetData>
@@ -7209,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.810308457704652</v>
+        <v>590.2906666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>5.367784235988035e-14</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7224,13 +7221,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1762.061691542047</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.810308457711697</v>
+        <v>-590.2906666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.367784235987992e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7242,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1762.061691542313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7250,10 +7247,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.367784235988035e-14</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>885.436</v>
+        <v>2.610461765245823</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7265,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.07895160522357e-13</v>
+        <v>783.1385295742277</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.367784235987992e-14</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-885.436</v>
+        <v>-2.61046176524791</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7283,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.078951605223732e-13</v>
+        <v>783.1385295743613</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7297,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.810308457704652</v>
+        <v>2.610461765245823</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.061691542047</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.07895160522357e-13</v>
+        <v>-783.1385295742277</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7315,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.810308457711697</v>
+        <v>-2.61046176524791</v>
       </c>
       <c r="K4" t="n">
-        <v>1762.061691542313</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.078951605223732e-13</v>
+        <v>-783.1385295743613</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7338,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1762.061691542006</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>470470.4716417747</v>
+        <v>53204.86542222223</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.392122024909299e-11</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7356,13 +7353,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1762.061691542272</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>234354.2049751256</v>
+        <v>-53204.86542222223</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.923684395985478e-11</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -7379,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.078951605223544e-13</v>
+        <v>-783.1385295742247</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.392122024909299e-11</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>79807.29813333334</v>
+        <v>313646.9810945168</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7397,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.078951605223707e-13</v>
+        <v>783.138529574343</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.923684395985478e-11</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-79807.29813333334</v>
+        <v>156236.1366500837</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -7414,10 +7411,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1762.061691542006</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.078951605223544e-13</v>
+        <v>783.1385295742247</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7429,13 +7426,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>470470.4716417747</v>
+        <v>313646.9810945168</v>
       </c>
       <c r="H7" t="n">
-        <v>1762.061691542272</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.078951605223707e-13</v>
+        <v>-783.138529574343</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -7447,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>234354.2049751256</v>
+        <v>156236.1366500837</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7455,10 +7452,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.81030845771177</v>
+        <v>-590.2906666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.367784235987992e-14</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7470,13 +7467,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1762.061691542294</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>8.81030845771776</v>
+        <v>590.2906666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>5.367784235987955e-14</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -7488,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1762.061691542425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7496,10 +7493,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.367784235987992e-14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-885.436</v>
+        <v>-2.610461765247932</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7511,13 +7508,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.07895160522372e-13</v>
+        <v>-783.138529574352</v>
       </c>
       <c r="H9" t="n">
-        <v>5.367784235987955e-14</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>885.436</v>
+        <v>2.610461765249707</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -7529,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.078951605223801e-13</v>
+        <v>-783.1385295743955</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7543,13 +7540,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.81030845771177</v>
+        <v>-2.610461765247932</v>
       </c>
       <c r="E10" t="n">
-        <v>-1762.061691542294</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.07895160522372e-13</v>
+        <v>783.138529574352</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7561,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.81030845771776</v>
+        <v>2.610461765249707</v>
       </c>
       <c r="K10" t="n">
-        <v>-1762.061691542425</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.078951605223801e-13</v>
+        <v>783.1385295743955</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7584,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1762.061691542342</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>234354.2049751268</v>
+        <v>-53204.86542222223</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.923684395985485e-11</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7602,13 +7599,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1762.061691542438</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>470470.4716417957</v>
+        <v>53204.86542222223</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.392122024909427e-11</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -7625,13 +7622,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.07895160522375e-13</v>
+        <v>-783.1385295743743</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.923684395985485e-11</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-79807.29813333334</v>
+        <v>156236.1366500845</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -7643,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.078951605223809e-13</v>
+        <v>783.1385295744169</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.392122024909427e-11</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>79807.29813333334</v>
+        <v>313646.9810945301</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7660,10 +7657,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1762.061691542342</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.07895160522375e-13</v>
+        <v>783.1385295743743</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7675,13 +7672,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>234354.2049751268</v>
+        <v>156236.1366500845</v>
       </c>
       <c r="H13" t="n">
-        <v>1762.061691542438</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.078951605223809e-13</v>
+        <v>-783.1385295744169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -7693,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>470470.4716417957</v>
+        <v>313646.9810945301</v>
       </c>
     </row>
   </sheetData>
@@ -7917,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.454549548835339e-36</v>
+        <v>1.202576464676308e-19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7925,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.324456849352771e-20</v>
+        <v>-0.001095019854625306</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7933,7 +7930,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.540994912066642e-20</v>
+        <v>-0.003754353787286761</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7941,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.972448280201843e-20</v>
+        <v>-0.007418142022687212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7949,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.402131762322329e-19</v>
+        <v>-0.01159239064144682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7957,7 +7954,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.916977018800057e-19</v>
+        <v>-0.01584897158010306</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7965,7 +7962,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.397963979880797e-19</v>
+        <v>-0.01982562263111072</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7973,7 +7970,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.809242685732444e-19</v>
+        <v>-0.02322594744284191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7981,7 +7978,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.122929834263359e-19</v>
+        <v>-0.02581941551958602</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7989,7 +7986,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.319108781122376e-19</v>
+        <v>-0.02744136222154979</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7997,7 +7994,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.38582953969879e-19</v>
+        <v>-0.02799298876485725</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8005,7 +8002,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.31910878112237e-19</v>
+        <v>-0.02744136222154974</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8013,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.122929834263348e-19</v>
+        <v>-0.02581941551958593</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8021,7 +8018,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.809242685732429e-19</v>
+        <v>-0.02322594744284179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8029,7 +8026,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.397963979880782e-19</v>
+        <v>-0.0198256226311106</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8037,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.916977018800043e-19</v>
+        <v>-0.01584897158010294</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8045,7 +8042,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.402131762322316e-19</v>
+        <v>-0.01159239064144672</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8053,7 +8050,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.972448280201751e-20</v>
+        <v>-0.007418142022687136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8061,7 +8058,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.540994912066589e-20</v>
+        <v>-0.003754353787286717</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8069,7 +8066,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.324456849352754e-20</v>
+        <v>-0.001095019854625292</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8109,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.127258066302722e-15</v>
+        <v>-114.9120000000015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8117,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.233755761644798e-15</v>
+        <v>-82.08000000000092</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8125,7 +8122,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.434306331161388e-15</v>
+        <v>-52.70400000000038</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8133,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.289097748525011e-16</v>
+        <v>-26.78399999999979</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8141,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.175660927181372e-16</v>
+        <v>-4.319999999999786</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8149,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.997247152417024e-16</v>
+        <v>14.68800000000046</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8157,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.229626490270325e-16</v>
+        <v>30.24000000000033</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8165,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.152147708637855e-15</v>
+        <v>42.33600000000064</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8173,7 +8170,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.387279894074126e-15</v>
+        <v>50.97600000000057</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8181,7 +8178,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.528359205335921e-15</v>
+        <v>56.1600000000005</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8189,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.575385642423171e-15</v>
+        <v>57.88800000000078</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8197,7 +8194,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.528359205335904e-15</v>
+        <v>56.16000000000032</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8205,7 +8202,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.387279894074109e-15</v>
+        <v>50.97599999999949</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8213,7 +8210,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.152147708637821e-15</v>
+        <v>42.33599999999954</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8221,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.229626490270155e-16</v>
+        <v>30.23999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8229,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.997247152416939e-16</v>
+        <v>14.68799999999982</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8237,7 +8234,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.175660927181556e-16</v>
+        <v>-4.320000000000332</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8245,7 +8242,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.289097748525103e-16</v>
+        <v>-26.78400000000013</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8253,7 +8250,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.434306331161386e-15</v>
+        <v>-52.70400000000022</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8261,7 +8258,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.233755761644776e-15</v>
+        <v>-82.08000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8269,7 +8266,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.127258066302681e-15</v>
+        <v>-114.912</v>
       </c>
     </row>
   </sheetData>
